--- a/data/trans_orig/P14C13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83CF6142-C3BC-4486-8875-66C0C31CE43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B7EFDDD-F3E8-4C87-9A66-3FFBABEBEA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20CA39B8-BBFF-4500-BD19-ADD32FCADEAD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36CF5D72-8523-4C3D-91CB-08FEB91F3AE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>75,29%</t>
   </si>
   <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
   </si>
   <si>
     <t>75,09%</t>
   </si>
   <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,25 +104,25 @@
     <t>18,82%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>15,12%</t>
+    <t>14,84%</t>
   </si>
   <si>
     <t>23,99%</t>
@@ -134,28 +134,28 @@
     <t>5,89%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,61 +167,61 @@
     <t>65,81%</t>
   </si>
   <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
   </si>
   <si>
     <t>69,24%</t>
   </si>
   <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
   </si>
   <si>
     <t>25,42%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>24,83%</t>
   </si>
   <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>4,39%</t>
+    <t>4,88%</t>
   </si>
   <si>
     <t>14,41%</t>
@@ -230,19 +230,19 @@
     <t>6,31%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -251,64 +251,64 @@
     <t>65,64%</t>
   </si>
   <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>78,58%</t>
   </si>
   <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>72,36%</t>
   </si>
   <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
   </si>
   <si>
     <t>3,07%</t>
@@ -317,88 +317,88 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>18,26%</t>
+    <t>12,79%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>69,16%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
   </si>
   <si>
     <t>72,62%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
   </si>
   <si>
     <t>71,37%</t>
   </si>
   <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>5,03%</t>
+    <t>5,13%</t>
   </si>
   <si>
     <t>8,96%</t>
@@ -816,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC4A71-0067-4C75-BA04-09907A797A2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E0BB2F-5547-4D0E-8965-35F3C9997BED}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C13-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B7EFDDD-F3E8-4C87-9A66-3FFBABEBEA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{709D72CD-DBA9-4244-8A00-705C4FAD843A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36CF5D72-8523-4C3D-91CB-08FEB91F3AE7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F174448E-FD8F-4F02-BA33-D8878A92C313}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
-  <si>
-    <t>Población según el tiempo de diagnóstico del dolor de espalda en 2015 (Tasa respuesta: 10,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+  <si>
+    <t>Población según el tiempo de diagnóstico del dolor de espalda en 2016 (Tasa respuesta: 10,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>75,29%</t>
   </si>
   <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
   </si>
   <si>
     <t>75,09%</t>
   </si>
   <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>18,82%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,28 +134,28 @@
     <t>5,89%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,172 +167,172 @@
     <t>65,81%</t>
   </si>
   <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>69,24%</t>
   </si>
   <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
   </si>
   <si>
     <t>25,42%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>24,83%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>4,88%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
   </si>
   <si>
     <t>69,16%</t>
   </si>
   <si>
-    <t>63,4%</t>
+    <t>62,66%</t>
   </si>
   <si>
     <t>74,7%</t>
@@ -341,67 +341,64 @@
     <t>72,62%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
   </si>
   <si>
     <t>71,37%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>5,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E0BB2F-5547-4D0E-8965-35F3C9997BED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E8BD4B-6698-4E01-92EB-3E2757869DB0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1696,7 +1693,7 @@
         <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1749,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
